--- a/medicine/Premiers secours et secourisme/Radiocommunication_de_catastrophe/Radiocommunication_de_catastrophe.xlsx
+++ b/medicine/Premiers secours et secourisme/Radiocommunication_de_catastrophe/Radiocommunication_de_catastrophe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les radiocommunications de catastrophe jouent un rôle capital déterminant à tous les stades de la gestion des catastrophes.
-Dans certains cas, lorsque l'infrastructure des télécommunications est entièrement détruite, seuls les radiocommunications d’urgence et de catastrophe peuvent être utilisés pour les opérateurs des secours[1].
+Dans certains cas, lorsque l'infrastructure des télécommunications est entièrement détruite, seuls les radiocommunications d’urgence et de catastrophe peuvent être utilisés pour les opérateurs des secours.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Principes techniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les radiocommunications des secours en cas d'urgence et de catastrophe.
-Lors d'une catastrophe, l'aide humanitaire médicale et des secouristes intervenant en pays étranger peuvent utiliser pleinement les outils de radiocommunication[2] qui permettent de sauver des vies sans être de l'ingérence humanitaire. La Convention de Tampere[3] demande aux états signataires[4] (dont la France[5],[6]) de supprimer les obstacles réglementaires à l'utilisation des stations de télécommunications[7],[8],[9].
+Lors d'une catastrophe, l'aide humanitaire médicale et des secouristes intervenant en pays étranger peuvent utiliser pleinement les outils de radiocommunication qui permettent de sauver des vies sans être de l'ingérence humanitaire. La Convention de Tampere demande aux états signataires (dont la France,) de supprimer les obstacles réglementaires à l'utilisation des stations de télécommunications.
 Ces obstacles comprennent :
-l'obligation de licence pour l'utilisation des fréquences[10] ;
+l'obligation de licence pour l'utilisation des fréquences ;
 les restrictions à l'importation d'équipements ;
 les dispositions limitant les mouvements du personnel humanitaire.</t>
         </is>
@@ -547,10 +561,12 @@
           <t>Internet mobile</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un téléphone portable (en France) ou téléphone valise (en France) ou téléphone transportable (Règlement des radiocommunications de l'UIT) est un téléphone fonctionnant avec une installation démontable pour être déplacée et puis installée pour être utilisée dans des conditions normales durant des haltes à l'intérieur des limites géographiques d'un pays ou d'une zone. Le téléphone portable ne fonctionne pas durant le déplacement. Le règlement des radiocommunications de l'UIT définit: le téléphone transportable ne peut être utilisé qu'en des points fixes.
-Un téléphone mobile ou un mobile multifonction[11], est un téléphone fonctionnant dans des conditions normales durant le déplacement ou pendant des haltes en des points non déterminés, et sans réaliser d'installation, à l'intérieur des limites géographiques d'un pays ou d'une zone.
+Un téléphone mobile ou un mobile multifonction, est un téléphone fonctionnant dans des conditions normales durant le déplacement ou pendant des haltes en des points non déterminés, et sans réaliser d'installation, à l'intérieur des limites géographiques d'un pays ou d'une zone.
 Les capacités opérationnelles de ces moyens de télécommunications terrestres par fil ou par ondes terrestres sont dépendants des réseaux détruits ou en service pouvant être surchargés.
 L'internet mobile est l'ensemble des technologies destinées à accéder à Internet au-delà des stations de travail et des PC fixes et de les rendre accessibles au moyen de terminaux mobiles et de réseaux mobiles. les réseaux sociaux généraux (type Facebook).
 La messagerie instantanée en ligne permet l’échange instantané de messages textuels et de fichiers entre plusieurs personnes par l'intermédiaire de Smartphones, d’ordinateurs connectés au même réseau informatique.
@@ -586,7 +602,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Satellites artificiels
+          <t>Satellites artificiels</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			téléphone portable
 			téléphone portable
 			téléphone portable
@@ -599,7 +621,7 @@
 Globalstar à couverture mondiale via une constellation de 48 satellites en orbite terrestre basse à 1414 kilomètres, destiné à la téléphonie et aux transferts de données à bas débit.
 Iridium est un système global de communications utilisant une constellation de satellites défilants en orbite terrestre basse. Il permet de communiquer sur toute la Terre entre des terminaux mobiles, terrestres ou maritimes, et des fournisseurs d'accès. Des canaux de téléphonie et de données sont disponibles, à partir de terminaux portables ou fixes.
 GSM Satellite est une extension de la norme de téléphonie mobile GSM autorisant les communications par satellite à moindre coût en comparaison aux autres solutions satellite existantes.
-Inmarsat (International maritime satellite) se trouve à 35 786 km d'altitude en orbite géostationnaire couvrant la zone entre les latitudes 70° Nord et 70° Sud c'est-à-dire ne couvrant pas l’Arctique et l’Antarctique (zone polaire), opère quatre satellites assurant les fonctions téléphonie, données, télex et télécopie par l'intermédiaire de 37 stations terrestres. Plusieurs systèmes sont disponibles :Inmarsat B (premier système numérique) et (remplace l'Inmarsat A système analogique par modulation de fréquence)Inmarsat C (en texte uniquement) et Mini-C Inmarsat M et Mini-M Fleet 33, Fleet 55, Fleet 77[12]BGAN par un de réseau par 3 satellites s'inspire du GSM 3G par le système mobile packet data de 432kb/s par canal.
+Inmarsat (International maritime satellite) se trouve à 35 786 km d'altitude en orbite géostationnaire couvrant la zone entre les latitudes 70° Nord et 70° Sud c'est-à-dire ne couvrant pas l’Arctique et l’Antarctique (zone polaire), opère quatre satellites assurant les fonctions téléphonie, données, télex et télécopie par l'intermédiaire de 37 stations terrestres. Plusieurs systèmes sont disponibles :Inmarsat B (premier système numérique) et (remplace l'Inmarsat A système analogique par modulation de fréquence)Inmarsat C (en texte uniquement) et Mini-C Inmarsat M et Mini-M Fleet 33, Fleet 55, Fleet 77BGAN par un de réseau par 3 satellites s'inspire du GSM 3G par le système mobile packet data de 432kb/s par canal.
 La valise Inmarsat C (en texte uniquement) est pour gérer :
 la position de la station valise INMARSAT C (et du bateau) ;
 le déroulement d'une campagne de pêche, d'une course au large) ;
@@ -612,10 +634,7 @@
 Safetynet et Fleetnet ;
 SMS texte ;
 SMDSM ;
-information de sécurité.
-Liaison EME
-Les radiocommunications EME par réflexion sur la Lune[15],[16] peuvent être utilisées en cas de panne des satellites artificiels de télécommunications. Les stations radios sur la Terre doivent voir la Lune en même temps pour communiquer et utiliser une puissance apparente rayonnée radioélectrique de l'ordre du 1 MW.
-Les communications par les satellites artificiels de télécommunications ont progressivement révolutionné le trafic par réflexion sur la Lune en radiotélétype[17].</t>
+information de sécurité.</t>
         </is>
       </c>
     </row>
@@ -640,19 +659,93 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Radio-télécommunication par satellite</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liaison EME</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les radiocommunications EME par réflexion sur la Lune, peuvent être utilisées en cas de panne des satellites artificiels de télécommunications. Les stations radios sur la Terre doivent voir la Lune en même temps pour communiquer et utiliser une puissance apparente rayonnée radioélectrique de l'ordre du 1 MW.
+Les communications par les satellites artificiels de télécommunications ont progressivement révolutionné le trafic par réflexion sur la Lune en radiotélétype.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liaisons de faible capacité HF et MF</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En raison de l'utilisation d'équipement de type Haute fréquence, les liaisons réseaux intercontinentales, continentales et nationales sont de faible capacité car l’envoi d’une image détaillé ou d’une photo couleur demande plusieurs minutes de transmission radio. Les ondes décamétriques se propagent par réflexions successives entre le sol ou la mer et les couches ionisées.
-Elles peuvent ainsi être reçues à une grande distance de l'émetteur, même lorsque la courbure de la surface terrestre empêche une liaison en vue directe entre la station émettrice et la station réceptrice[18].
-Radiocommunications intercontinentales
-Caractéristiques des bandes de fréquences utilisées pour les communications intercontinentales par réflexion sur les couches E, F, F1 et F2[19] :
+Elles peuvent ainsi être reçues à une grande distance de l'émetteur, même lorsque la courbure de la surface terrestre empêche une liaison en vue directe entre la station émettrice et la station réceptrice.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liaisons de faible capacité HF et MF</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Radiocommunications intercontinentales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caractéristiques des bandes de fréquences utilisées pour les communications intercontinentales par réflexion sur les couches E, F, F1 et F2 :
 de 6 MHz à 10 MHz, ce sont des bandes nocturnes pour lesquelles la réception n’est possible à grande distance que lorsqu’il fait nuit entre les lieux d’émission et de réception ;
 de 10 MHz à 15 MHz, ce sont des bandes mixtes pour lesquelles les meilleures réceptions sont lorsque l’émetteur est dans le jour et le récepteur dans la nuit, ou inversement ;
 de 15 MHz à 23 MHz, ce sont des bandes diurnes pour lesquelles les meilleures réceptions à grande distance sont lorsque le parcours entre l’émetteur et le récepteur est éclairé par le soleil ;
-au-delà de 23 MHz, ce sont des bandes de propagation occasionnelle à grande distance, a lieu de temps en temps, avec régulièrement des radiocommunications à grande distance durant 3 ans tous les 11 ans en fonction du cycle solaire au maximum[20].
+au-delà de 23 MHz, ce sont des bandes de propagation occasionnelle à grande distance, a lieu de temps en temps, avec régulièrement des radiocommunications à grande distance durant 3 ans tous les 11 ans en fonction du cycle solaire au maximum.
 			Exemple de parcours nocturnes et éclairé par le soleil à 01h UTC
 			Exemple de parcours nocturnes et éclairé par le soleil à 07h UTC
 			Exemple de parcours nocturnes et éclairé par le soleil à 13h UTC
@@ -660,61 +753,309 @@
 			Exemple de parcours nocturnes et éclairé par le soleil à 19h UTC
 			Exemple de parcours nocturnes et éclairé par le soleil à 22h UTC
 Pour obtenir la carte actualisée de la Terre.
-Radiocommunications continentales et nationales
-Concernant les communications continentales et nationales par réflexion sur les couches E, F, F1, on peut résumer :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liaisons de faible capacité HF et MF</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Radiocommunications continentales et nationales</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Concernant les communications continentales et nationales par réflexion sur les couches E, F, F1, on peut résumer :
 de nuit : bandes de 3 MHz à 9 MHz ;
-de jour : bandes de 5 MHz à 16 MHz.
-Radiocommunications régionales et départementales
-Liaisons de faible capacité (équipement du type moyenne fréquence ou haute fréquence) pour les radiocommunications régionales et départementales.
+de jour : bandes de 5 MHz à 16 MHz.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liaisons de faible capacité HF et MF</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Radiocommunications régionales et départementales</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Liaisons de faible capacité (équipement du type moyenne fréquence ou haute fréquence) pour les radiocommunications régionales et départementales.
 En résumé :
 de nuit : bande 0,3 MHz à 5 MHz en Europe, bande 2 MHz à 6 MHz sous les tropiques ;
-de jour : bande 0,3 MHz à 8 MHz en Europe, bande 4 MHz à 12 MHz sous les tropiques.
-Moyenne fréquence et haute fréquence (MF et HF)
-Liaisons de faible capacité de radiocommunication du type A :
+de jour : bande 0,3 MHz à 8 MHz en Europe, bande 4 MHz à 12 MHz sous les tropiques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liaisons de faible capacité HF et MF</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Moyenne fréquence et haute fréquence (MF et HF)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liaisons de faible capacité de radiocommunication du type A :
 Les émetteurs-récepteurs sont conçus pour ce type de communications. Les équipements doivent être transportables, à ondes hectométriques et décamétriques et à semi-conducteurs pour des raisons de fiabilité et de consommation d'énergie. En outre, ils sont prévus pour se mettre hors circuit automatiquement lorsqu'ils ne sont pas utilisés afin d'économiser les batteries et limiter les risques de brouillage. 
 Par exemple, une station terminale de 100 W à bande latérale unique (BLU) à semi-conducteurs et fonctionnant dans une bande limitée, par exemple entre 2 MHz et 8 MHz, et équipée d'une antenne fouet de 2 m, peut avoir une portée de 250 km suivant les conditions météorologiques, de propagation et de relief de terrain.
 Le système, exploité en mono-fréquence tactique, avec un synthétiseur de fréquences pour assurer un choix rapide et étendu de fréquences en présence de brouillage et pour faciliter l'établissement de la liaison en cas d'urgence, doit pouvoir permettre une autonomie de 24 heures à partir d'une batterie standard (en supposant que l'émetteur ne soit pas employé de façon intensive). On peut charger la batterie à partir d'une génératrice montée sur un véhicule et tous les éléments peuvent être transportés à la main en terrain difficile.
-Secours en cas d'urgence et de catastrophe
-Sur 2 182 kHz des essais de radio-télécommunication de catastrophe ont donné une portée de 250 km avec un émetteur de 60 W et une antenne mono-pôle (fil unique) de 7 à 10 mètres alimentée par une boîte de couplage automatique[21].
-NVIS
-Il s'agit de la propagation ionosphérique des ondes radioélectriques avec une incidence quasi verticale en direction du ciel. Ce mode de propagation est utilisé pour des radiocommunications locales et régionales dans les bandes de 1,6 à 12 MHz à l’intérieur d’une zone arbitraire de 250 km autour de l'émetteur et sans zone de silence. Car l'onde arrive du ciel quel que soit le relief, on peut pratiquer le NVIS depuis le fond d'une vallée. Le NVIS est utilisé pour les radio-télécommunications de secours en cas d'urgence et de catastrophe sur une panne de réseau VHF et UHF.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Radiocommunication_de_catastrophe</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liaisons de faible capacité HF et MF</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Secours en cas d'urgence et de catastrophe</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur 2 182 kHz des essais de radio-télécommunication de catastrophe ont donné une portée de 250 km avec un émetteur de 60 W et une antenne mono-pôle (fil unique) de 7 à 10 mètres alimentée par une boîte de couplage automatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liaisons de faible capacité HF et MF</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NVIS</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de la propagation ionosphérique des ondes radioélectriques avec une incidence quasi verticale en direction du ciel. Ce mode de propagation est utilisé pour des radiocommunications locales et régionales dans les bandes de 1,6 à 12 MHz à l’intérieur d’une zone arbitraire de 250 km autour de l'émetteur et sans zone de silence. Car l'onde arrive du ciel quel que soit le relief, on peut pratiquer le NVIS depuis le fond d'une vallée. Le NVIS est utilisé pour les radio-télécommunications de secours en cas d'urgence et de catastrophe sur une panne de réseau VHF et UHF.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Antennes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antenne adaptée au NVIS
-Une antenne horizontale disposée seulement à quelques mètres au-dessus du sol est bien adaptée à la propagation en direction du ciel. L'antenne NVIS peut être constituée par un dipôle tendu et placé à quelques mètres au-dessus d'un réseau de réflecteurs au niveau du sol.
-Antenne transportable
-Dans cette application, l'antenne est démontable et remontable à volonté, le déplacement s'effectuant avec l'antenne démontée. 
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Antenne adaptée au NVIS</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une antenne horizontale disposée seulement à quelques mètres au-dessus du sol est bien adaptée à la propagation en direction du ciel. L'antenne NVIS peut être constituée par un dipôle tendu et placé à quelques mètres au-dessus d'un réseau de réflecteurs au niveau du sol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Antennes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Antenne transportable</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans cette application, l'antenne est démontable et remontable à volonté, le déplacement s'effectuant avec l'antenne démontée. 
 Ces antennes horizontales sont accordées par une boîte de couplage dans les bandes de 1,6 à 12 MHz et fonctionnent en monopôle ou en dipôle. Elles sont érigées seulement à quelques mètres au-dessus du sol, avec, éventuellement un sol artificiel métallique ou un fil de masse.
-Antenne de véhicule terrestre
-Pour les véhicules, l'antenne est plus courte, fixée sur le pare-chocs :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Antennes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Antenne de véhicule terrestre</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les véhicules, l'antenne est plus courte, fixée sur le pare-chocs :
 soit l'antenne est courbée au-dessus du véhicule et couplée en monopôle, l'antenne fonctionnant en fil monopôle ;
 soit l'antenne est courbée au-dessus du sol, l’antenne est fixée sur le pare-chocs arrière et érigée en arrière au-dessus du sol, le fouet et le véhicule sont alors couplés en dipôle.
 Cette antenne horizontale a son lobe de rayonnement principal quasi vertical en direction du ciel.
@@ -724,76 +1065,149 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Radiocommunication_de_catastrophe</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Radiodiffusion de catastrophe</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La radiodiffusion internationale sur ondes courtes pour les secours en cas de catastrophe est l'émission radio destinées à être reçues directement par le public en général et s'applique à la fois à la réception individuelle et à la réception communautaire pour les diffusions d'urgence dans les bandes d'ondes décamétriques (HF). Ce service peut comprendre des émissions sonores ou d'autres genres d'émission[22],[23],[24].
-Des stations de radiodiffusion pour les secours en cas de catastrophe sont reçues sur les fréquences : 5 910 kHz, 7 400 kHz, 9 430 kHz, 11 840 kHz, 13 620 kHz, 15 650 kHz, 17 500 kHz, 18 950 kHz, 21 840 kHz, 26 010 kHz[25].
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La radiodiffusion internationale sur ondes courtes pour les secours en cas de catastrophe est l'émission radio destinées à être reçues directement par le public en général et s'applique à la fois à la réception individuelle et à la réception communautaire pour les diffusions d'urgence dans les bandes d'ondes décamétriques (HF). Ce service peut comprendre des émissions sonores ou d'autres genres d'émission.
+Des stations de radiodiffusion pour les secours en cas de catastrophe sont reçues sur les fréquences : 5 910 kHz, 7 400 kHz, 9 430 kHz, 11 840 kHz, 13 620 kHz, 15 650 kHz, 17 500 kHz, 18 950 kHz, 21 840 kHz, 26 010 kHz.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Radiocommunication_de_catastrophe</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>VHF-UHF</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Réseaux locaux de radiocommunication (équipement du type VHF et UHF).
 Les fréquences actuellement en vigueur pour la coordination inter-agence et les radiocommunications sécurisées dans le cadre de l'assistance humanitaire internationale, sont à bande étroite.
 Le Groupe de travail sur les télécommunications d'urgence (WGET, Working Group on Emergency Télécommunications), qui constitue également le groupe de référence sur les télécommunications du Comité permanent inter-agence (IASC, Inter-Agency Committee) sur les affaires humanitaires pour les Nations unies a adopté un plan de fréquence précis dans le cadre des réseaux locaux de radiocommunication (équipement du type VHF UHF).
 Les réseaux de radiocommunication du type B sont envisagés comme des centres locaux assurant des radiocommunications sur canal unique avec 10 à 20 stations extérieures et fonctionnant sur ondes métriques ou décimétriques jusqu'à 470 MHz environ. On pourrait utiliser à cette fin les équipements à canal unique et à canaux multiples du service mobile terrestre.
-La propagation locale en VHF et en UHF
-Sur ces bandes, la propagation se fait dans une zone de réception directe (quelques dizaines de kilomètres) en partant de l’émetteur[26].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>VHF-UHF</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>La propagation locale en VHF et en UHF</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sur ces bandes, la propagation se fait dans une zone de réception directe (quelques dizaines de kilomètres) en partant de l’émetteur.
 La propagation est comparable à celle d’un rayon lumineux.
 Les obstacles sur le sol prennent de l’importance en VHF.
 Les obstacles sur le sol prennent une grande importance en UHF.
-Les propagations sporadiques radios à grande distance en VHF et en UHF ne sont pas utilisables par les secours.
-VHF
-Description des canaux catastrophes utilisés dans les fréquences métriques allouées au service mobile terrestre :
+Les propagations sporadiques radios à grande distance en VHF et en UHF ne sont pas utilisables par les secours.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>VHF-UHF</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>VHF</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Description des canaux catastrophes utilisés dans les fréquences métriques allouées au service mobile terrestre :
 En absence d'obstacles, la portée radio est fonction de la courbure de la terre et de la hauteur des antennes d’émission et de réception en VHF selon la formule :
         d
         =
@@ -829,9 +1243,44 @@
         )
     {\displaystyle 21=4,188\times \ ({\sqrt {4}}\ +{\sqrt {9}})}
 la distance maximum entre les deux stations radioélectriques est de 21 km (sans obstacles intermédiaires).
-Les portées pratiques en onde directe, au-dessus du sol, obtenues par le tableau ci-dessous, sont indiquées en kilomètres suivant les hauteurs des antennes d'émission et de réception, la portée correspond à une puissance d'émission de 10 watts sur 160 MHz et pour une réception radioélectrique d'un champ de 3 microvolts par mètre[27].
-UHF
-Description des canaux catastrophes utilisés dans les fréquences décimétriques allouées au service mobile terrestre :
+Les portées pratiques en onde directe, au-dessus du sol, obtenues par le tableau ci-dessous, sont indiquées en kilomètres suivant les hauteurs des antennes d'émission et de réception, la portée correspond à une puissance d'émission de 10 watts sur 160 MHz et pour une réception radioélectrique d'un champ de 3 microvolts par mètre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>VHF-UHF</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>UHF</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Description des canaux catastrophes utilisés dans les fréquences décimétriques allouées au service mobile terrestre :
 En absence d'obstacles, la portée radio est fonction de la courbure de la terre et de la hauteur des antennes d’émission et de réception en UHF selon la formule :
         d
         =
@@ -852,127 +1301,203 @@
 h1 est la hauteur de l’antenne d’émission en mètres au-dessus de la hauteur moyenne du sol ;
 h2 est la hauteur de l’antenne de réception en mètres au-dessus de la hauteur moyenne du sol.
 Appareils portables de faible puissance, appelés talkies-walkies a usage libre en Union européenne
-Les PMR446 : Radio Mobile Professionnelle à usage libre dans la bande des 446 MHz[28] :
+Les PMR446 : Radio Mobile Professionnelle à usage libre dans la bande des 446 MHz :
 appareils portables de radiocommunication, d'une portée de 200 m en ville et en forêt et allant jusqu'à trois kilomètres en mer ;
 appareils portables de radiocommunication de 16 canaux répartis de 446.000 à 446.200 MHz en analogique FM et numérique TDMA (32 canaux en FDMA).
-Les LPD433 : Appareils de faible puissance à usage libre dans la bande des 433 MHz[29] :
+Les LPD433 : Appareils de faible puissance à usage libre dans la bande des 433 MHz :
 appareils portables de radiocommunication, d'une portée de quelques dizaines de mètres en ville et en forêt ;
 appareils portables de radiocommunication de 69 canaux répartis de 433,050 à 434,750 MHz.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Radiocommunication_de_catastrophe</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Rapidité opérationnelle</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour une rapidité opérationnelle, une organisation de secours arrivant sur place peut demander à utiliser et partager les infrastructures de radiocommunications d’urgences opérationnelles des autres organisations existantes déjà implantées sur la zone.
 Les raisons d’utilisations des radiocommunications partagés entre les deux organisations doivent être semblables ou complémentaires et l’utilisation des radiocommunications doit être clairement convenue devant les autorités des États de la zone concernée.
 Des facilités administratives sont déjà prédéterminées pour certaines organisations :  radioamateur, radioamateur au service de la sécurité civile, marine, aéronautique, secours locaux, FENICS, Télécoms sans frontières...
-Des facilités administratives sont possibles à certaines organisations.Exemple : d’après la résolution no 10[30], dans chaque pays, des facilités avec une rapidité administrative sont possibles aux organisations : Comité international de la Croix-Rouge, Fédération internationale des Sociétés de la Croix-Rouge et du Croissant-Rouge, Croix-Rouge locale ou Croissant-Rouge local[31],[32].
+Des facilités administratives sont possibles à certaines organisations.Exemple : d’après la résolution no 10, dans chaque pays, des facilités avec une rapidité administrative sont possibles aux organisations : Comité international de la Croix-Rouge, Fédération internationale des Sociétés de la Croix-Rouge et du Croissant-Rouge, Croix-Rouge locale ou Croissant-Rouge local,.
 			Station radio OEH61 et OE6XRK de la Croix-Rouge autrichienne
 			Certificat d'opérateur pour les transmissions radio-électriques de la Croix-Rouge française
 </t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Radiocommunication_de_catastrophe</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Utilisation des services maritimes aéronautiques et radioamateurs</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Utilisation d’une station maritime
-Sur une catastrophe internationale, les organisations déjà titulaires d'indicatif sous licence radio maritime peuvent utiliser le matériel radioélectrique marine. L'indicatif est attribué à la coque du véhicule radio, à un bâtiment « station côtière radio ». La licence désigne le matériel radioélectrique utilisé avec les caractéristiques (puissances, fréquences et modes d’émission).
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Utilisation d’une station maritime</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur une catastrophe internationale, les organisations déjà titulaires d'indicatif sous licence radio maritime peuvent utiliser le matériel radioélectrique marine. L'indicatif est attribué à la coque du véhicule radio, à un bâtiment « station côtière radio ». La licence désigne le matériel radioélectrique utilisé avec les caractéristiques (puissances, fréquences et modes d’émission).
 Les centres de radiocommunications maritimes en ondes décamétriques, installées dans divers pays permettent les liaisons radios avec les navires en mer et avec les opérateurs des secours pour les organisations intervenant sur une catastrophe internationale. Elles permettent la demande d'aide médicale par radios ondes décamétriques.
 Les canaux marines
 Les canaux navire à navire sont utilisables par les organisations déjà titulaires d'indicatif sous licence radio maritime.
 Les canaux haute fréquence (4 MHz à 26 MHz) entre stations mobiles par radiotéléphonie en simplex et en bandes croisées en USB (maxi 1 kW) en kHz :
-4000 à 4063 (tous les 3 kHz)[33] ; et 4146, 4149 ;
+4000 à 4063 (tous les 3 kHz) ; et 4146, 4149 ;
 6224, 6227, 6230 ;
-8101 à 8191 (tous les 3 kHz)[33] ; et 8294, 8297 ;
+8101 à 8191 (tous les 3 kHz) ; et 8294, 8297 ;
 12353, 12356, 12359, 12362, 12365;
 16528, 16531, 16534, 16537, 16540, 16543, 16546 ;
 18825, 18828, 18831, 18834, 18837, 18840, 18843 ;
 22159, 22162, 22165, 22168, 22171, 22174, 22177 ;
 25100, 25103, 25106, 25109, 25112, 25115, 25118.
 Manœuvre d’une station maritime
-Dans le monde, depuis le 31 janvier 1997, pour manœuvrer une station de bord radiotéléphonique, il est nécessaire de posséder un des certificats suivants[34],[35] :
+Dans le monde, depuis le 31 janvier 1997, pour manœuvrer une station de bord radiotéléphonique, il est nécessaire de posséder un des certificats suivants, :
 certificat restreint de radiotéléphoniste maritime ;
 certificat restreint d'opérateur (SRC, Short Range Certificate) ;
 certificat spécial d'opérateur, (LRC, Long Range Certificate) ;
 certificat général d'opérateur (LRC, Long Range Certificate).
-Depuis le 31 janvier 1997, pour configurer, programmer, modifier, réparer une station de bord de navire, il est nécessaire de posséder un des certificats suivants[36] :
+Depuis le 31 janvier 1997, pour configurer, programmer, modifier, réparer une station de bord de navire, il est nécessaire de posséder un des certificats suivants :
 certificat de radioélectronicien de première classe (CR1) ;
 certificat de radioélectronicien de deuxième classe (CR2).
 Mobile terrestre
 Dispositions relatives au service mobile terrestre.
-Les stations du service mobile terrestre situées dans des régions inhabitées, peu peuplées ou isolées peuvent, pour les besoins de la détresse et de la sécurité, se servir des fréquences ci-dessous[37] :
-Les procédures de « sécurité et vie humaine » sont obligatoires pour les stations du service mobile terrestre lorsqu'elles utilisent des fréquences prévues pour les communications de détresse et de sécurité[42]. Pour manœuvrer une station de bord radiotéléphonique il est nécessaire de posséder un certificats station maritime.
-Utilisation d’une station d'aéronef
-Sur une catastrophe internationale, les organisations pour gérer efficacement la logistique, réception, stockage et la distribution des secours. Les organisations déjà titulaires d'indicatifs sous licences peuvent aussi être appelées par des bandes radios à s'interconnecter avec les services aéronautiques.
+Les stations du service mobile terrestre situées dans des régions inhabitées, peu peuplées ou isolées peuvent, pour les besoins de la détresse et de la sécurité, se servir des fréquences ci-dessous :
+Les procédures de « sécurité et vie humaine » sont obligatoires pour les stations du service mobile terrestre lorsqu'elles utilisent des fréquences prévues pour les communications de détresse et de sécurité. Pour manœuvrer une station de bord radiotéléphonique il est nécessaire de posséder un certificats station maritime.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Utilisation des services maritimes aéronautiques et radioamateurs</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Utilisation d’une station d'aéronef</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sur une catastrophe internationale, les organisations pour gérer efficacement la logistique, réception, stockage et la distribution des secours. Les organisations déjà titulaires d'indicatifs sous licences peuvent aussi être appelées par des bandes radios à s'interconnecter avec les services aéronautiques.
 Manœuvre d’une station d'aéronef
-Pour manœuvrer une station radiotéléphonique dans les bandes aéronautiques, il est nécessaire de posséder un des certificats suivants[43] :
+Pour manœuvrer une station radiotéléphonique dans les bandes aéronautiques, il est nécessaire de posséder un des certificats suivants :
 Les licences des navigants de l'aéronautique civile.
 Les mentions: aptitude à la radiotéléphonie ;
 L'agrément d'agent AFIS ;
 L'agrément de pompier d'aérodrome ;
 Le certificat d'exploitant hospitalier en télécommunications.
 Les certificats étranger :
-certificat restreint de radiotéléphoniste du service aéronautique [44] ;
+certificat restreint de radiotéléphoniste du service aéronautique  ;
 Qualification restreinte de radiotéléphoniste international ;
-Qualification de radiotéléphoniste international.
-Utilisation d’une station radioamateur
-Manœuvre d’une station radioamateur
+Qualification de radiotéléphoniste international.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Utilisation des services maritimes aéronautiques et radioamateurs</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Utilisation d’une station radioamateur</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Manœuvre d’une station radioamateur
 Pour manœuvrer une station dans les bandes radioamateur, il est nécessaire de posséder un certificat d'opérateur du service amateur.
 Utilisation du service radioamateur
-Les bandes radioamateurs[45] sont bien adaptées à une utilisation à bref délai dans les cas d'urgence.
+Les bandes radioamateurs sont bien adaptées à une utilisation à bref délai dans les cas d'urgence.
 Pour établir des contacts radios par le truchement d'une station de radioamateur il convient d'utiliser la procédure suivante :
-Informer le propriétaire de la station de radioamateur qu'en vertu de la résolution 640[46] et de la résolution 646[1] des règles internationales pour les radiocommunications, les secours sont en droit, dans le cas de catastrophes, d'utiliser les bandes de fréquences attribuées au service radioamateur ;
-Demander à l'opérateur radioamateur d'appeler n'importe quelle autre station de radioamateur[47], si possible située dans le pays à contacter, pour établir un contact direct et immédiat par téléphone avec le secrétariat de l'organisation (située en France dans notre cas) ou avec la station de radio de l'organisation.
-Pour le trafic intercontinental, l'Union internationale des radioamateurs (IARU) recommande l’utilisation, pour les secours en cas de catastrophe, des fréquences suivantes[48] :
+Informer le propriétaire de la station de radioamateur qu'en vertu de la résolution 640 et de la résolution 646 des règles internationales pour les radiocommunications, les secours sont en droit, dans le cas de catastrophes, d'utiliser les bandes de fréquences attribuées au service radioamateur ;
+Demander à l'opérateur radioamateur d'appeler n'importe quelle autre station de radioamateur, si possible située dans le pays à contacter, pour établir un contact direct et immédiat par téléphone avec le secrétariat de l'organisation (située en France dans notre cas) ou avec la station de radio de l'organisation.
+Pour le trafic intercontinental, l'Union internationale des radioamateurs (IARU) recommande l’utilisation, pour les secours en cas de catastrophe, des fréquences suivantes :
 14,300 MHz Emergence Center of Activity de la bande des 20 mètres,
 18,160 MHz Emergence Center of Activity de la bande des 17 mètres,
 21,360 MHz Emergence Center of Activity de la bande des 15 mètres ;
@@ -980,14 +1505,14 @@
 14,303 MHz Aide internationale,
 14,313 MHz Réseau service mobile maritime,
 14,332 MHz Assistance médicale ;
-Pour le trafic continental en Europe, l'ouest du Moyen-Orient, Afrique, le nord de l'Asie, l'IARU région 1 recommande l’utilisation, pour les secours en cas de catastrophe, des fréquences suivantes[49] :
+Pour le trafic continental en Europe, l'ouest du Moyen-Orient, Afrique, le nord de l'Asie, l'IARU région 1 recommande l’utilisation, pour les secours en cas de catastrophe, des fréquences suivantes :
 3,760 MHz Emergence Center of Activity en région 1 de la bande des 80 mètres ;
-7,110 MHz (ou 7,060 MHz)  Emergence Center of Activity en région 1 de la bande des 40 mètres[50],
+7,110 MHz (ou 7,060 MHz)  Emergence Center of Activity en région 1 de la bande des 40 mètres,
 en plus des fréquences ci-dessus d’autres fréquences et d’autres bandes peuvent être utilisées ;
-Pour le trafic continental en Amérique et au Groenland, l'IARU région 2 recommande l’utilisation, pour les secours en cas de catastrophe, des fréquences suivantes[51] :
+Pour le trafic continental en Amérique et au Groenland, l'IARU région 2 recommande l’utilisation, pour les secours en cas de catastrophe, des fréquences suivantes :
 3,750 MHz et 3,985 MHz Emergence Center of Activity en région 2 de la bande des 80 mètres,
 7,110 MHz, 7,240 MHz et 7,290 MHz Emergence Center of Activity en région 2 de la bande des 40 mètres ;
-Pour le trafic continental en Océanie et en Asie, l'IARU région 3 recommande l’utilisation, pour les secours en cas de catastrophe, des fréquences suivantes[52] :
+Pour le trafic continental en Océanie et en Asie, l'IARU région 3 recommande l’utilisation, pour les secours en cas de catastrophe, des fréquences suivantes :
 3,600 MHz Emergence Center of Activity en région 3 de la bande des 80 mètres,
 7,110 MHz Emergence Center of Activity en région 3 de la bande des 40 mètres ;
 Donner de façon claire les renseignements suivants :
@@ -1036,48 +1561,118 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Radiocommunication_de_catastrophe</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Établissement de radiocommunications</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Avant une transmission chaque station se mettra sur écoute pendant une période assez longue pour s'assurer qu'elle ne va pas provoquer d'interférences nuisibles.S'il y a des risques d'interférences la station attendra la première interruption de la transmission et saisira cette occasion pour s'interposer ; elle peut toutefois interrompre une transmission en cours dans les circonstances suivantes :
 quand une transmission est de longue durée et que la station souhaitant l'interrompre doit transmettre un message de plus haute priorité ;
 quand on souhaite informer la station émettrice que la station réceptrice n'est pas en mesure de recevoir correctement la transmission en cours ;
 quand des circonstances particulières rendent l'interruption souhaitable ;
-en cas de message d'urgence ou de détresse.
-Contenu des messages
-Aucun code spécial et aucune abréviation ne sont autorisés sur un réseau radio.L'opérateur responsable (technicien radio) de la station, avant d'accepter le message pour transmission, doit s'assurer que le texte de l'expéditeur est écrit clairement et qu'il ne peut y avoir de doute quant à sa composition.
+en cas de message d'urgence ou de détresse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Établissement de radiocommunications</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Contenu des messages</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Aucun code spécial et aucune abréviation ne sont autorisés sur un réseau radio.L'opérateur responsable (technicien radio) de la station, avant d'accepter le message pour transmission, doit s'assurer que le texte de l'expéditeur est écrit clairement et qu'il ne peut y avoir de doute quant à sa composition.
 Le texte des messages doit être rédigé en clair (sans code secret). L'expéditeur doit renoncer à utiliser des mots et des phrases non essentiels, comme les formules de politesse, etc.
 Tous les messages doivent être lisibles et écrits à l'aide des caractères suivants :
 lettres : A B C D E F G H l J K L M N D P Q R S T U V W X Y Z ;
 chiffres : 1 2 3 4 5 6 7 8 9 0 ;
 signes : « / » « : » « = » « ? » « stop » pour le point « @ » ou « AC » en un seul caractère et « décimale » pour la virgule ou le point-virgule ;
 QUOTE pour « citation » et UNQUOTE pour « fin de citation » ;
-aucun autre signe de ponctuation ne sera employé.
-Composition des messages
-Courte présentation des règles de compositions communes à tous les messages.
+aucun autre signe de ponctuation ne sera employé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Établissement de radiocommunications</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Composition des messages</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Courte présentation des règles de compositions communes à tous les messages.
 Le préambule doit respecter l'ordre suivant :
 mention de l'expéditeur du message ;
 l'Organisation « X », sécurité civile, radio sans frontière, Médecins sans frontières, ERU, Croix-Rouge française, Fédération internationale des Sociétés de la Croix-Rouge et du Croissant-Rouge Genève, etc.
@@ -1094,34 +1689,39 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Radiocommunication_de_catastrophe</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Transmissions d'urgence et de sécurité, et transports sanitaires</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Signal et message d'urgence
-En radiotélégraphie Morse, le signal d'urgence consiste en trois répétitions du groupe XXX, transmis en séparant bien les lettres de chaque groupe et les groupes successifs. Il est transmis avant l'appel[53].
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Signal et message d'urgence</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En radiotélégraphie Morse, le signal d'urgence consiste en trois répétitions du groupe XXX, transmis en séparant bien les lettres de chaque groupe et les groupes successifs. Il est transmis avant l'appel.
 En radiotéléphonie, le signal d'urgence est constitué par le groupe PANPAN, (étant prononcé comme en français « panne panne »). Il est répété trois fois avant l'appel.
 Le signal d'urgence ne peut être transmis qu'avec l'autorisation du commandant ou de la personne responsable du navire, de l'aéronef et de tout autre véhicule portant la station mobile ou la station terrienne mobile du service mobile maritime par satellite.
 Le signal d'urgence ne peut être transmis par une station terrestre ou une station terrienne du service mobile maritime par satellite située en un point fixe déterminé qu'avec l'approbation de l'autorité responsable.
@@ -1136,13 +1736,48 @@
 Les stations mobiles qui entendent le signal d'urgence doivent rester à l'écoute pendant trois minutes au moins. Passé ce délai, si aucun message d'urgence n'a été entendu, une station terrestre doit, si possible, être avisée de la réception du signal d'urgence. Le service normal peut reprendre ensuite.
 Toutefois, les stations terrestres et mobiles qui sont en communication sur des fréquences autres que celles utilisées pour la transmission du signal d'urgence et de l'appel qui le suit peuvent continuer sans arrêt leur travail normal, à moins qu'il ne s'agisse d'un message « à tous » (CQ, Seek you).
 Lorsque le signal d'urgence a précédé l'émission d'un message « à tous » (CQ) comportant des mesures à prendre par les stations recevant ce message, la station responsable de l'émission doit l'annuler dès qu'elle sait qu'il n'est plus nécessaire d'y donner suite. Ce message d'annulation est également un message « à tous » (CQ).
-Transports sanitaires
-Historiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Transmissions d'urgence et de sécurité, et transports sanitaires</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Transports sanitaires</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historiques
 La nécessité d'utiliser les radiocommunications pour annoncer et identifier les transports sanitaires est apparue pendant la Seconde Guerre mondiale. En mer, plus de 45 navires-hôpitaux et 4 navires affrétés par le Comité international de la Croix-Rouge furent coulés ou endommagés par faits de guerre : l'absence de moyens d'identification efficaces fut la cause de la plupart des attaques en surface ou sous-marines. En 1943, un navire-hôpital attaqué par des avions s'efforça de se faire identifier par radio. La station côtière de Malte retransmit le message du navire sous forme d'appel à tous (CQ) sur les fréquences internationales de détresse de 500 kc/s en radiotélégraphie et de 1 650 kc/s en radiotéléphonie (ex 2 182 kHz), mais les avions assaillants ne purent capter cette émission.
 Transport sanitaire en zone de conflit
-Dans une zone de combat, aux fins d'annonce et d'identification de transports sanitaires placés sous la direction d'une partie à un conflit ou d'États neutres, ou d’un navire portant secours aux blessés, aux malades et aux naufragés, le responsable du transport sanitaire doit faire transmettre les signaux d'urgence de trois groupes PAN PAN suivis par l'adjonction du seul groupe MEDICAL en radiotéléphonie[54].
-L'expression « transports sanitaires », définie dans les Conventions de Genève de 1949 et les Protocoles additionnels, recouvre tout moyen de transport, par terre, par eau ou par air, militaire ou civil, permanent ou temporaire, affecté exclusivement au transport sanitaire placé sous la direction d'une autorité compétente d'une partie à un conflit ou d'États neutres et d'autres États non parties à un conflit armé, lorsque ces navires, ces embarcations et ces aéronefs portent secours aux blessés, aux malades et aux naufragés[55].
-Aux fins d'annonce et d'identification de transports sanitaires qui sont protégés conformément aux Conventions de Genève du CICR susmentionnées, une transmission complète des signaux d'urgence en radiotéléphonie sur les fréquences internationales de détresse: 2 182 kHz[38], 156,800 MHz, les fréquences de détresse supplémentaires 4 125 kHz[56] et 6 215 kHz[57], la fréquence aéronautique d'urgence 121,500 MHz, la fréquence militaire 243 MHz[58] ou toute autre fréquence pouvant être utilisée en cas de détresse peuvent être utilisées par les transports sanitaires aux fins d'auto-identification et d'établissement des communications[59]. La communication doit, dès que possible en pratique, être transférée sur une fréquence de travail appropriée.
+Dans une zone de combat, aux fins d'annonce et d'identification de transports sanitaires placés sous la direction d'une partie à un conflit ou d'États neutres, ou d’un navire portant secours aux blessés, aux malades et aux naufragés, le responsable du transport sanitaire doit faire transmettre les signaux d'urgence de trois groupes PAN PAN suivis par l'adjonction du seul groupe MEDICAL en radiotéléphonie.
+L'expression « transports sanitaires », définie dans les Conventions de Genève de 1949 et les Protocoles additionnels, recouvre tout moyen de transport, par terre, par eau ou par air, militaire ou civil, permanent ou temporaire, affecté exclusivement au transport sanitaire placé sous la direction d'une autorité compétente d'une partie à un conflit ou d'États neutres et d'autres États non parties à un conflit armé, lorsque ces navires, ces embarcations et ces aéronefs portent secours aux blessés, aux malades et aux naufragés.
+Aux fins d'annonce et d'identification de transports sanitaires qui sont protégés conformément aux Conventions de Genève du CICR susmentionnées, une transmission complète des signaux d'urgence en radiotéléphonie sur les fréquences internationales de détresse: 2 182 kHz, 156,800 MHz, les fréquences de détresse supplémentaires 4 125 kHz et 6 215 kHz, la fréquence aéronautique d'urgence 121,500 MHz, la fréquence militaire 243 MHz ou toute autre fréquence pouvant être utilisée en cas de détresse peuvent être utilisées par les transports sanitaires aux fins d'auto-identification et d'établissement des communications. La communication doit, dès que possible en pratique, être transférée sur une fréquence de travail appropriée.
 L'utilisation des signaux décrits indique que le message qui suit concerne un transport sanitaire protégé. Le message doit contenir les données suivantes :
 l'indicatif d'appel ou tout autre moyen reconnu d'identification du véhicule de transport sanitaire ;
 la position du véhicule de transport sanitaire ;
@@ -1151,13 +1786,48 @@
 la durée estimée du déplacement, et les heures de départ et d'arrivée prévues, selon le cas ;
 toute autre information, telle que l'altitude de vol, les fréquences radioélectriques de veille, langues utilisées, modes et codes des systèmes de radar secondaires de surveillance.
 Ces dispositions s'appliquent, s'il y a lieu, à l'utilisation des signaux d'urgence par des transports sanitaires.
-L'identification et la localisation des transports sanitaires en mer peuvent être effectuées au moyen des répondeurs radar maritimes normalisés[60].
+L'identification et la localisation des transports sanitaires en mer peuvent être effectuées au moyen des répondeurs radar maritimes normalisés.
 L'identification et la localisation des transports sanitaires par aéronef peuvent être effectuées au moyen du système de radar secondaire de surveillance (SSR), tel qu'il est spécifié à l'annexe 10 de la Convention relative à l'aviation civile internationale.
 L'utilisation des radiocommunications pour annoncer et identifier les transports sanitaires est facultative.
 Identification sanitaire à un aéronef hostile
 La fréquence aéronautique militaire de 243 MHz est utilisée en cas de véritable urgence, c'est-à-dire dans des situations où des actions hostiles d'un avion vont être entreprises de manière imminente. Toutefois, il est aussi clair qu'une fois le premier contact établi sur la fréquence d'urgence 243 MHz, les communications devraient être transférées le plus rapidement possible sur une des fréquences de travail qui sont en général attribuées par une force militaire ou bien définies préalablement par les parties à un conflit comme la fréquence 282,800 MHz.
-Transport neutre
-Dans une zone de combats, aux fins d'annonce et d'identification, le capitaine d'un navire placé sous la direction d'un État neutre à un conflit doit faire transmettre les signaux d'urgence[61] : d'un seul groupe PAN PAN suivi par l'adjonction du seul groupe NEUTRAL en radiotéléphonie sur les fréquences internationales de détresse: 2 182 kHz, 156,800 MHz, sur les fréquences de détresse supplémentaires 4 125 kHz et 6 215 kHz, sur la fréquence aéronautique d'urgence 121,500 MHz, sur la fréquence militaire 243 MHz ou sur toute autre fréquence pouvant être utilisée en cas de détresse peuvent être utilisées par les transports sanitaires aux fins d'auto-identification et d'établissement des communications. La communication doit, dès que possible en pratique, être transférée sur une fréquence de travail appropriée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Transmissions d'urgence et de sécurité, et transports sanitaires</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Transport neutre</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Dans une zone de combats, aux fins d'annonce et d'identification, le capitaine d'un navire placé sous la direction d'un État neutre à un conflit doit faire transmettre les signaux d'urgence : d'un seul groupe PAN PAN suivi par l'adjonction du seul groupe NEUTRAL en radiotéléphonie sur les fréquences internationales de détresse: 2 182 kHz, 156,800 MHz, sur les fréquences de détresse supplémentaires 4 125 kHz et 6 215 kHz, sur la fréquence aéronautique d'urgence 121,500 MHz, sur la fréquence militaire 243 MHz ou sur toute autre fréquence pouvant être utilisée en cas de détresse peuvent être utilisées par les transports sanitaires aux fins d'auto-identification et d'établissement des communications. La communication doit, dès que possible en pratique, être transférée sur une fréquence de travail appropriée.
 Le message doit contenir les données suivantes :
 l'indicatif d'appel ou tout autre moyen reconnu d'identification du véhicule de transport neutre ;
 la position du véhicule de transport neutre ;
@@ -1168,34 +1838,36 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Radiocommunication_de_catastrophe</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radiocommunication_de_catastrophe</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Bande des 475 kHz</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’attribution de la bande 472 à 479 kHz désignée aussi par sa longueur d'onde de 630 mètres au service radioamateur[62], afin de mettre au point des systèmes à onde de sol fiables[63] pour les secours en cas de catastrophe et de disposer de fréquences pour des expériences de traitement numérique des traitements du signal[64]. L'antenne en T est appropriée pour émettre dans cette bande 
-La bande ne doit pas être utilisé dans ces pays: Algérie, Arabie saoudite, Azerbaïdjan, Bahreïn, Biélorussie, Chine, Comores, Djibouti, Égypte, Émirats arabes unis, Russie, Irak, Jordanie, Kazakhstan, Koweït, Liban, Libye, Mauritanie, Oman, Ouzbékistan, Qatar, Syrie, Kirghizistan, Somalie, Soudan, Tunisie et Yémen; car l'utilisation de la bande comprise de 415 kHz à 526,5 kHz est exclusive aux services maritime et aéronautique[65] et ceci doit être pris en considération par les pays autorisant une telle utilisation.
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’attribution de la bande 472 à 479 kHz désignée aussi par sa longueur d'onde de 630 mètres au service radioamateur, afin de mettre au point des systèmes à onde de sol fiables pour les secours en cas de catastrophe et de disposer de fréquences pour des expériences de traitement numérique des traitements du signal. L'antenne en T est appropriée pour émettre dans cette bande 
+La bande ne doit pas être utilisé dans ces pays: Algérie, Arabie saoudite, Azerbaïdjan, Bahreïn, Biélorussie, Chine, Comores, Djibouti, Égypte, Émirats arabes unis, Russie, Irak, Jordanie, Kazakhstan, Koweït, Liban, Libye, Mauritanie, Oman, Ouzbékistan, Qatar, Syrie, Kirghizistan, Somalie, Soudan, Tunisie et Yémen; car l'utilisation de la bande comprise de 415 kHz à 526,5 kHz est exclusive aux services maritime et aéronautique et ceci doit être pris en considération par les pays autorisant une telle utilisation.
 </t>
         </is>
       </c>
